--- a/a.xlsx
+++ b/a.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiaosi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dell\mail\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6240" xr2:uid="{6684E882-923A-41C0-B366-5E290118572F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6240"/>
   </bookViews>
   <sheets>
     <sheet name="汇总表" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,170 +67,62 @@
     <t>陈建海</t>
   </si>
   <si>
-    <t>sqdx13382908813</t>
-  </si>
-  <si>
-    <t>a75x51u4</t>
-  </si>
-  <si>
     <t>程江艳</t>
   </si>
   <si>
-    <t>sqdx18951369826</t>
-  </si>
-  <si>
-    <t>a88i18m4</t>
-  </si>
-  <si>
     <t>耿赛男</t>
   </si>
   <si>
-    <t>sqdx18951360105</t>
-  </si>
-  <si>
-    <t>y5ci6dk1</t>
-  </si>
-  <si>
     <t>顾红亮</t>
   </si>
   <si>
-    <t>sqdx18936992669</t>
-  </si>
-  <si>
-    <t>n21x73yx</t>
-  </si>
-  <si>
     <t>郭培高</t>
   </si>
   <si>
-    <t>sqdx18951595959</t>
-  </si>
-  <si>
-    <t>z75i56q5</t>
-  </si>
-  <si>
     <t>李仁河</t>
   </si>
   <si>
-    <t>sqdx18951361361</t>
-  </si>
-  <si>
-    <t>p25a71t3</t>
-  </si>
-  <si>
     <t>李卫国</t>
   </si>
   <si>
-    <t>sqdx13305248998</t>
-  </si>
-  <si>
-    <t>y35y54y2</t>
-  </si>
-  <si>
     <t>倪志旺</t>
   </si>
   <si>
-    <t>sqdx18951367127</t>
-  </si>
-  <si>
-    <t>e24m57l1</t>
-  </si>
-  <si>
     <t>沈大伟</t>
   </si>
   <si>
-    <t>sqdx18951455331</t>
-  </si>
-  <si>
-    <t>n57w11y1</t>
-  </si>
-  <si>
     <t>石二为</t>
   </si>
   <si>
-    <t>sqdx18951369526</t>
-  </si>
-  <si>
-    <t>u31hq5z4</t>
-  </si>
-  <si>
     <t>谭颖</t>
   </si>
   <si>
-    <t>sqdx18951248600</t>
-  </si>
-  <si>
-    <t>j35y2ir1</t>
-  </si>
-  <si>
     <t>王猛</t>
   </si>
   <si>
-    <t>sqdx18951369099</t>
-  </si>
-  <si>
-    <t>k4wv83n1</t>
-  </si>
-  <si>
     <t>吴莹</t>
   </si>
   <si>
-    <t>sqdx18951361516</t>
-  </si>
-  <si>
-    <t>a68y22wx</t>
-  </si>
-  <si>
     <t>叶志勇</t>
   </si>
   <si>
-    <t>sqdx18951366524</t>
-  </si>
-  <si>
-    <t>j66y6fp1</t>
-  </si>
-  <si>
     <t>殷其付</t>
   </si>
   <si>
-    <t>sqdx18951595859</t>
-  </si>
-  <si>
-    <t>n37yi2k4</t>
-  </si>
-  <si>
     <t>尤学雷</t>
   </si>
   <si>
-    <t>sqdx18951369616</t>
-  </si>
-  <si>
-    <t>e31h71c5</t>
-  </si>
-  <si>
     <t>张勇</t>
   </si>
   <si>
-    <t>sqdx18951595158</t>
-  </si>
-  <si>
-    <t>f53sq7s5</t>
-  </si>
-  <si>
     <t>朱建军</t>
-  </si>
-  <si>
-    <t>sqdx18951369611</t>
-  </si>
-  <si>
-    <t>s28f86j1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -243,6 +135,13 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -283,21 +182,21 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -613,28 +512,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E4BC859-5836-4689-8865-4CC9D97D3CA1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="C2" sqref="C2:C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="4"/>
-    <col min="2" max="2" width="25.5546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="4"/>
-    <col min="4" max="4" width="14.77734375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="17.109375" style="7" customWidth="1"/>
-    <col min="8" max="8" width="13" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="8.9140625" style="6"/>
+    <col min="2" max="2" width="25.58203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="8.9140625" style="6"/>
+    <col min="4" max="4" width="14.75" style="6" customWidth="1"/>
+    <col min="5" max="5" width="15.25" style="6" customWidth="1"/>
+    <col min="6" max="6" width="13.08203125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="17.08203125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="13" style="6" customWidth="1"/>
+    <col min="9" max="9" width="13" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="8.9140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -653,15 +552,15 @@
       <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="5"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>224</v>
       </c>
@@ -681,15 +580,11 @@
         <f t="shared" ref="F2:F19" si="0">SUM(D2:E2)</f>
         <v>4000</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="6"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G2" s="2"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>225</v>
       </c>
@@ -697,7 +592,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1">
         <v>2000</v>
@@ -709,15 +604,11 @@
         <f t="shared" si="0"/>
         <v>4000</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="6"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G3" s="2"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>226</v>
       </c>
@@ -725,7 +616,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1">
         <v>2000</v>
@@ -737,15 +628,11 @@
         <f t="shared" si="0"/>
         <v>4000</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="6"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G4" s="2"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>227</v>
       </c>
@@ -753,7 +640,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1">
         <v>2000</v>
@@ -765,15 +652,11 @@
         <f t="shared" si="0"/>
         <v>4000</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="6"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G5" s="2"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>228</v>
       </c>
@@ -781,7 +664,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D6" s="1">
         <v>2000</v>
@@ -793,15 +676,11 @@
         <f t="shared" si="0"/>
         <v>4000</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="6"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G6" s="2"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>229</v>
       </c>
@@ -809,7 +688,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D7" s="1">
         <v>2000</v>
@@ -821,15 +700,11 @@
         <f t="shared" si="0"/>
         <v>4000</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="6"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G7" s="2"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>230</v>
       </c>
@@ -837,7 +712,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D8" s="1">
         <v>2000</v>
@@ -849,15 +724,11 @@
         <f t="shared" si="0"/>
         <v>4000</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" s="6"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G8" s="2"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>231</v>
       </c>
@@ -865,7 +736,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D9" s="1">
         <v>2000</v>
@@ -877,15 +748,11 @@
         <f t="shared" si="0"/>
         <v>4000</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I9" s="6"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G9" s="2"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>232</v>
       </c>
@@ -893,7 +760,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="D10" s="1">
         <v>2000</v>
@@ -905,15 +772,11 @@
         <f t="shared" si="0"/>
         <v>4000</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I10" s="6"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G10" s="2"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>233</v>
       </c>
@@ -921,7 +784,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D11" s="1">
         <v>2000</v>
@@ -933,15 +796,11 @@
         <f t="shared" si="0"/>
         <v>4000</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" s="6"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G11" s="2"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>234</v>
       </c>
@@ -949,7 +808,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="D12" s="1">
         <v>2000</v>
@@ -961,15 +820,11 @@
         <f t="shared" si="0"/>
         <v>4000</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I12" s="6"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G12" s="2"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>235</v>
       </c>
@@ -977,7 +832,7 @@
         <v>8</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="D13" s="1">
         <v>2000</v>
@@ -989,15 +844,11 @@
         <f t="shared" si="0"/>
         <v>4000</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I13" s="6"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G13" s="2"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>236</v>
       </c>
@@ -1005,7 +856,7 @@
         <v>8</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="D14" s="1">
         <v>2000</v>
@@ -1017,15 +868,11 @@
         <f t="shared" si="0"/>
         <v>4000</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I14" s="6"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G14" s="2"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>237</v>
       </c>
@@ -1033,7 +880,7 @@
         <v>8</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="D15" s="1">
         <v>2000</v>
@@ -1045,15 +892,11 @@
         <f t="shared" si="0"/>
         <v>4000</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="6"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G15" s="2"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>238</v>
       </c>
@@ -1061,7 +904,7 @@
         <v>8</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="D16" s="1">
         <v>2000</v>
@@ -1073,15 +916,11 @@
         <f t="shared" si="0"/>
         <v>4000</v>
       </c>
-      <c r="G16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I16" s="6"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G16" s="2"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>239</v>
       </c>
@@ -1089,7 +928,7 @@
         <v>8</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="D17" s="1">
         <v>2000</v>
@@ -1101,15 +940,11 @@
         <f t="shared" si="0"/>
         <v>4000</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I17" s="6"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G17" s="2"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>240</v>
       </c>
@@ -1117,7 +952,7 @@
         <v>8</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="D18" s="1">
         <v>2000</v>
@@ -1129,15 +964,11 @@
         <f t="shared" si="0"/>
         <v>4000</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I18" s="6"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G18" s="2"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="5"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>241</v>
       </c>
@@ -1145,7 +976,7 @@
         <v>8</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="D19" s="1">
         <v>2000</v>
@@ -1157,123 +988,119 @@
         <f t="shared" si="0"/>
         <v>4000</v>
       </c>
-      <c r="G19" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I19" s="6"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G19" s="2"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="3"/>
+      <c r="G20" s="2"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="6"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I20" s="5"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="3"/>
+      <c r="G21" s="2"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="6"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I21" s="5"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="3"/>
+      <c r="G22" s="2"/>
       <c r="H22" s="1"/>
-      <c r="I22" s="6"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I22" s="5"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="3"/>
+      <c r="G23" s="2"/>
       <c r="H23" s="1"/>
-      <c r="I23" s="6"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I23" s="5"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="3"/>
+      <c r="G24" s="2"/>
       <c r="H24" s="1"/>
-      <c r="I24" s="6"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I24" s="5"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="3"/>
+      <c r="G25" s="2"/>
       <c r="H25" s="1"/>
-      <c r="I25" s="6"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="3"/>
+      <c r="G26" s="2"/>
       <c r="H26" s="1"/>
-      <c r="I26" s="6"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="3"/>
+      <c r="G27" s="2"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="6"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I27" s="5"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="3"/>
+      <c r="G28" s="2"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="6"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I28" s="5"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
-      <c r="G29" s="3"/>
+      <c r="G29" s="2"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="6"/>
+      <c r="I29" s="5"/>
     </row>
   </sheetData>
   <sortState ref="B2:H7">
